--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F8B95-E883-42A8-90F9-272C16EB3CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59588C20-1BA1-44FF-8465-BBDCDA88341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Bodies" sheetId="2" r:id="rId2"/>
     <sheet name="Shields" sheetId="3" r:id="rId3"/>
+    <sheet name="Todo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -109,14 +110,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Assault</t>
-  </si>
-  <si>
     <t>猎狗</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Courser</t>
   </si>
   <si>
     <t>加速度</t>
@@ -144,6 +139,33 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Courser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射武器时机动性降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时，8% 的几率强化子弹
+武器射速、武器扩散和射弹速度提高 15%
++15% 对攻击时降低移速的抵抗力
+- 10% 最大护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3 子弹数量
++10% 武器射速
+-60% 武器扩散
+你的武器从两门舷侧加农炮发射，你的射弹将在它们之间分开
+-10% 武器伤害、爆炸半径和射弹尺寸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3156,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3187,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39.21875" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="18" style="9" customWidth="1"/>
@@ -3198,13 +3220,13 @@
         <v>17</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -3239,13 +3261,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3307,13 +3329,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3331,7 +3353,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -3340,10 +3362,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>
@@ -3370,19 +3392,19 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>1400</v>
@@ -5776,4 +5798,25 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096A6ACB-0881-400A-98F3-58ECCC987496}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59588C20-1BA1-44FF-8465-BBDCDA88341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC69EF0-B386-4ED1-A3D2-A786190707E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -166,6 +166,57 @@
 -60% 武器扩散
 你的武器从两门舷侧加农炮发射，你的射弹将在它们之间分开
 -10% 武器伤害、爆炸半径和射弹尺寸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot_speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最普通的武器。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultShooter</t>
+  </si>
+  <si>
+    <t>shoot_spread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器散射</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +652,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -613,9 +664,10 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
     <col min="11" max="12" width="22.88671875" customWidth="1"/>
@@ -643,9 +695,15 @@
       <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -678,9 +736,15 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -740,9 +804,15 @@
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -759,23 +829,29 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="22.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1300</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
@@ -794,13 +870,27 @@
     </row>
     <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
@@ -3176,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3188,22 +3278,23 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="39.21875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
+    <col min="12" max="13" width="22.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3217,34 +3308,37 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="8"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3258,10 +3352,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>26</v>
@@ -3269,23 +3363,26 @@
       <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3301,7 +3398,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -3311,8 +3408,9 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3326,128 +3424,153 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4">
+        <v>38</v>
+      </c>
+      <c r="E5" s="11">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4">
         <v>1000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>400</v>
       </c>
-      <c r="H5" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1400</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="11">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="4">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.5</v>
+      </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1400</v>
+      </c>
+      <c r="H7" s="4">
+        <v>500</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -3455,8 +3578,9 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3467,12 +3591,12 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -3480,9 +3604,10 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -3492,12 +3617,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -3505,9 +3630,10 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -3517,12 +3643,12 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -3530,8 +3656,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3542,12 +3669,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -3555,8 +3682,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3567,12 +3695,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -3580,8 +3708,9 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3592,12 +3721,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -3605,8 +3734,9 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3617,12 +3747,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3630,8 +3760,9 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3642,12 +3773,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -3655,8 +3786,9 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3667,12 +3799,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -3680,8 +3812,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3692,12 +3825,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -3705,8 +3838,9 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3717,12 +3851,12 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -3730,8 +3864,9 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3742,12 +3877,12 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -3755,8 +3890,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3767,12 +3903,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -3780,8 +3916,9 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3792,12 +3929,12 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -3805,8 +3942,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3817,12 +3955,12 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -3830,8 +3968,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3842,12 +3981,12 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3855,8 +3994,9 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3867,12 +4007,12 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -3880,8 +4020,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3892,12 +4033,12 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -3905,8 +4046,9 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3917,12 +4059,12 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -3930,8 +4072,9 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3942,12 +4085,12 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -3955,8 +4098,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3967,12 +4111,12 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -3980,8 +4124,9 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3992,12 +4137,12 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -4005,8 +4150,9 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4017,12 +4163,12 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -4030,8 +4176,9 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4042,12 +4189,12 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -4055,8 +4202,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4067,12 +4215,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -4080,8 +4228,9 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4092,12 +4241,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -4105,8 +4254,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4117,12 +4267,12 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -4130,8 +4280,9 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4142,12 +4293,12 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -4155,8 +4306,9 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4167,12 +4319,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -4180,8 +4332,9 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4192,12 +4345,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -4205,8 +4358,9 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4217,12 +4371,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -4230,8 +4384,9 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4242,12 +4397,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="P39" s="4"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -4255,8 +4410,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4267,7 +4423,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="3"/>
+      <c r="K40" s="4"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -4280,8 +4436,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4292,7 +4449,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4305,8 +4462,9 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4317,7 +4475,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="3"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -4330,8 +4488,9 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4342,7 +4501,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4355,8 +4514,9 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4367,7 +4527,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="4"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -4380,8 +4540,9 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4392,7 +4553,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="3"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4405,8 +4566,9 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4417,7 +4579,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="4"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -4430,8 +4592,9 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4442,7 +4605,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4455,8 +4618,9 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4467,7 +4631,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
+      <c r="K48" s="4"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4480,8 +4644,9 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4492,7 +4657,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="4"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -4505,8 +4670,9 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4517,7 +4683,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="4"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -4530,8 +4696,9 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4542,7 +4709,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="3"/>
+      <c r="K51" s="4"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4555,8 +4722,9 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4567,7 +4735,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4580,8 +4748,9 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4592,7 +4761,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
+      <c r="K53" s="4"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -4605,8 +4774,9 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4617,7 +4787,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="3"/>
+      <c r="K54" s="4"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -4630,8 +4800,9 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4642,7 +4813,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="3"/>
+      <c r="K55" s="4"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -4655,8 +4826,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4667,7 +4839,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="3"/>
+      <c r="K56" s="4"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -4680,8 +4852,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4692,7 +4865,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="3"/>
+      <c r="K57" s="4"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -4705,8 +4878,9 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4717,7 +4891,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="3"/>
+      <c r="K58" s="4"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -4730,8 +4904,9 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4742,7 +4917,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="3"/>
+      <c r="K59" s="4"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -4755,8 +4930,9 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4767,7 +4943,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="3"/>
+      <c r="K60" s="4"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -4780,8 +4956,9 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4792,7 +4969,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="3"/>
+      <c r="K61" s="4"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -4805,8 +4982,9 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4817,7 +4995,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="4"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -4830,8 +5008,9 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4842,7 +5021,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
+      <c r="K63" s="4"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -4855,8 +5034,9 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4867,7 +5047,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="4"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -4880,8 +5060,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4892,7 +5073,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="3"/>
+      <c r="K65" s="4"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -4905,8 +5086,9 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4917,7 +5099,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="4"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -4930,8 +5112,9 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4942,7 +5125,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="4"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -4955,8 +5138,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4967,7 +5151,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="3"/>
+      <c r="K68" s="4"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -4980,8 +5164,9 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4992,7 +5177,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="3"/>
+      <c r="K69" s="4"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -5005,8 +5190,9 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5017,7 +5203,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="4"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -5030,8 +5216,9 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5042,7 +5229,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="3"/>
+      <c r="K71" s="4"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -5055,8 +5242,9 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5067,7 +5255,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="4"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -5080,8 +5268,9 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5092,7 +5281,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="3"/>
+      <c r="K73" s="4"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -5105,8 +5294,9 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5117,7 +5307,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="3"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -5130,8 +5320,9 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5142,7 +5333,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="3"/>
+      <c r="K75" s="4"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -5155,8 +5346,9 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5167,7 +5359,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="3"/>
+      <c r="K76" s="4"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -5180,8 +5372,9 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5192,7 +5385,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="3"/>
+      <c r="K77" s="4"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -5205,8 +5398,9 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5217,7 +5411,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="3"/>
+      <c r="K78" s="4"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -5230,8 +5424,9 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5242,7 +5437,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="3"/>
+      <c r="K79" s="4"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -5255,8 +5450,9 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5267,7 +5463,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3"/>
+      <c r="K80" s="4"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -5280,8 +5476,9 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5292,7 +5489,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="3"/>
+      <c r="K81" s="4"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -5305,8 +5502,9 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5317,7 +5515,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="4"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -5330,8 +5528,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5342,7 +5541,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="4"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -5355,8 +5554,9 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5367,7 +5567,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="4"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -5380,8 +5580,9 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5392,7 +5593,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="4"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -5405,8 +5606,9 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5417,7 +5619,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="4"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -5430,8 +5632,9 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5442,7 +5645,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="3"/>
+      <c r="K87" s="4"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -5455,8 +5658,9 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5467,7 +5671,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="4"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -5480,8 +5684,9 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5492,7 +5697,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="4"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -5505,8 +5710,9 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5517,7 +5723,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="3"/>
+      <c r="K90" s="4"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -5530,8 +5736,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5542,7 +5749,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="3"/>
+      <c r="K91" s="4"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -5555,8 +5762,9 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5567,7 +5775,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="3"/>
+      <c r="K92" s="4"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -5580,8 +5788,9 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5592,7 +5801,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="3"/>
+      <c r="K93" s="4"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -5605,8 +5814,9 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5617,7 +5827,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="3"/>
+      <c r="K94" s="4"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -5630,8 +5840,9 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5642,7 +5853,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="3"/>
+      <c r="K95" s="4"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -5655,8 +5866,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5667,7 +5879,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="3"/>
+      <c r="K96" s="4"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -5680,8 +5892,9 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5692,7 +5905,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="3"/>
+      <c r="K97" s="4"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -5705,8 +5918,9 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5717,7 +5931,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
+      <c r="K98" s="4"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -5730,8 +5944,9 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5742,7 +5957,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="3"/>
+      <c r="K99" s="4"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -5755,8 +5970,9 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X99" s="3"/>
+    </row>
+    <row r="100" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5767,7 +5983,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="3"/>
+      <c r="K100" s="4"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -5780,6 +5996,33 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+    </row>
+    <row r="101" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5804,9 +6047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096A6ACB-0881-400A-98F3-58ECCC987496}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC69EF0-B386-4ED1-A3D2-A786190707E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50331415-89F6-4784-85EE-9A9521701F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -169,22 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shoot_speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>射击CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认武器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,11 +196,11 @@
     <t>DefaultShooter</t>
   </si>
   <si>
-    <t>shoot_spread</t>
+    <t>class_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武器散射</t>
+    <t>类名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +639,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -695,15 +679,9 @@
       <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -736,15 +714,9 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -804,15 +776,9 @@
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -832,26 +798,20 @@
     <row r="5" spans="1:23" ht="22.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1300</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
@@ -871,7 +831,7 @@
     <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -882,15 +842,9 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
@@ -3266,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3279,22 +3233,22 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="39.21875" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
-    <col min="12" max="13" width="22.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="6" max="7" width="14" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="9" customWidth="1"/>
+    <col min="13" max="14" width="22.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,37 +3262,40 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="1"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="6"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3358,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>26</v>
@@ -3366,23 +3323,26 @@
       <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="5"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3399,7 +3359,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -3409,8 +3369,9 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3424,82 +3385,88 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="11">
         <v>100</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="4">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4">
         <v>1000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>400</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -3513,35 +3480,38 @@
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4">
         <v>1000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>400</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.5</v>
       </c>
-      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="108.95" x14ac:dyDescent="0.45">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -3555,23 +3525,25 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4">
         <v>1400</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>500</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>6</v>
       </c>
-      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -3579,8 +3551,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3592,12 +3565,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -3605,8 +3578,9 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3618,12 +3592,12 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -3631,8 +3605,9 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3644,12 +3619,12 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -3657,8 +3632,9 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3670,12 +3646,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -3683,8 +3659,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3696,12 +3673,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -3709,8 +3686,9 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3722,12 +3700,12 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -3735,8 +3713,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3748,12 +3727,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -3761,8 +3740,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3774,12 +3754,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -3787,8 +3767,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3800,12 +3781,12 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -3813,8 +3794,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3826,12 +3808,12 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -3839,8 +3821,9 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3852,12 +3835,12 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -3865,8 +3848,9 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3878,12 +3862,12 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -3891,8 +3875,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3904,12 +3889,12 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -3917,8 +3902,9 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3930,12 +3916,12 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3943,8 +3929,9 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3956,12 +3943,12 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -3969,8 +3956,9 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3982,12 +3970,12 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3995,8 +3983,9 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4008,12 +3997,12 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -4021,8 +4010,9 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4034,12 +4024,12 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -4047,8 +4037,9 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4060,12 +4051,12 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -4073,8 +4064,9 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4086,12 +4078,12 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -4099,8 +4091,9 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4112,12 +4105,12 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -4125,8 +4118,9 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4138,12 +4132,12 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -4151,8 +4145,9 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4164,12 +4159,12 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -4177,8 +4172,9 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4190,12 +4186,12 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -4203,8 +4199,9 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4216,12 +4213,12 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -4229,8 +4226,9 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4242,12 +4240,12 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -4255,8 +4253,9 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4268,12 +4267,12 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -4281,8 +4280,9 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4294,12 +4294,12 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="4"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -4307,8 +4307,9 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4320,12 +4321,12 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -4333,8 +4334,9 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4346,12 +4348,12 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="4"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -4359,8 +4361,9 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4372,12 +4375,12 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="4"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -4385,8 +4388,9 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4398,12 +4402,12 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="4"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -4411,8 +4415,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4424,7 +4429,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -4437,8 +4442,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4450,7 +4456,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -4463,8 +4469,9 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4476,7 +4483,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -4489,8 +4496,9 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4502,7 +4510,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -4515,8 +4523,9 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4528,7 +4537,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4541,8 +4550,9 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4554,7 +4564,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4567,8 +4577,9 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4580,7 +4591,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4593,8 +4604,9 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4606,7 +4618,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4619,8 +4631,9 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4632,7 +4645,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4645,8 +4658,9 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4658,7 +4672,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -4671,8 +4685,9 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4684,7 +4699,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -4697,8 +4712,9 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4710,7 +4726,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="3"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -4723,8 +4739,9 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4736,7 +4753,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -4749,8 +4766,9 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4762,7 +4780,7 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="3"/>
+      <c r="L53" s="4"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -4775,8 +4793,9 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4788,7 +4807,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="3"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -4801,8 +4820,9 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4814,7 +4834,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="3"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -4827,8 +4847,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4840,7 +4861,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="3"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4853,8 +4874,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4866,7 +4888,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="4"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -4879,8 +4901,9 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4892,7 +4915,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="3"/>
+      <c r="L58" s="4"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -4905,8 +4928,9 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4918,7 +4942,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4931,8 +4955,9 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4944,7 +4969,7 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="4"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -4957,8 +4982,9 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4970,7 +4996,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -4983,8 +5009,9 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4996,7 +5023,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="3"/>
+      <c r="L62" s="4"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -5009,8 +5036,9 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5022,7 +5050,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="3"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -5035,8 +5063,9 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5048,7 +5077,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="3"/>
+      <c r="L64" s="4"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -5061,8 +5090,9 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5074,7 +5104,7 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="3"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -5087,8 +5117,9 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -5100,7 +5131,7 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="3"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -5113,8 +5144,9 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5126,7 +5158,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="3"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -5139,8 +5171,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5152,7 +5185,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -5165,8 +5198,9 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5178,7 +5212,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="3"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -5191,8 +5225,9 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5204,7 +5239,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="3"/>
+      <c r="L70" s="4"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -5217,8 +5252,9 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5230,7 +5266,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="3"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -5243,8 +5279,9 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5256,7 +5293,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="3"/>
+      <c r="L72" s="4"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -5269,8 +5306,9 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5282,7 +5320,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="3"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -5295,8 +5333,9 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5308,7 +5347,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="3"/>
+      <c r="L74" s="4"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -5321,8 +5360,9 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5334,7 +5374,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="3"/>
+      <c r="L75" s="4"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -5347,8 +5387,9 @@
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5360,7 +5401,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="3"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -5373,8 +5414,9 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5386,7 +5428,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="3"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -5399,8 +5441,9 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5412,7 +5455,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="3"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -5425,8 +5468,9 @@
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5438,7 +5482,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="3"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -5451,8 +5495,9 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5464,7 +5509,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="3"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -5477,8 +5522,9 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5490,7 +5536,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="3"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -5503,8 +5549,9 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5516,7 +5563,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="3"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -5529,8 +5576,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5542,7 +5590,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="3"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -5555,8 +5603,9 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
-    </row>
-    <row r="84" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5568,7 +5617,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="3"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -5581,8 +5630,9 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
-    </row>
-    <row r="85" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5594,7 +5644,7 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="3"/>
+      <c r="L85" s="4"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -5607,8 +5657,9 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
-    </row>
-    <row r="86" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5620,7 +5671,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="3"/>
+      <c r="L86" s="4"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -5633,8 +5684,9 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-    </row>
-    <row r="87" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5646,7 +5698,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="3"/>
+      <c r="L87" s="4"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -5659,8 +5711,9 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
-    </row>
-    <row r="88" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5672,7 +5725,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="3"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -5685,8 +5738,9 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
-    </row>
-    <row r="89" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5698,7 +5752,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="3"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -5711,8 +5765,9 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
-    </row>
-    <row r="90" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5724,7 +5779,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="3"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -5737,8 +5792,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5750,7 +5806,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="3"/>
+      <c r="L91" s="4"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -5763,8 +5819,9 @@
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
-    </row>
-    <row r="92" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y91" s="3"/>
+    </row>
+    <row r="92" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5776,7 +5833,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="3"/>
+      <c r="L92" s="4"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -5789,8 +5846,9 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-    </row>
-    <row r="93" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y92" s="3"/>
+    </row>
+    <row r="93" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5802,7 +5860,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -5815,8 +5873,9 @@
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
-    </row>
-    <row r="94" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y93" s="3"/>
+    </row>
+    <row r="94" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5828,7 +5887,7 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="3"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -5841,8 +5900,9 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5854,7 +5914,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="3"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -5867,8 +5927,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5880,7 +5941,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -5893,8 +5954,9 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5906,7 +5968,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -5919,8 +5981,9 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
-    </row>
-    <row r="98" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5932,7 +5995,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="3"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -5945,8 +6008,9 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
-    </row>
-    <row r="99" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y98" s="3"/>
+    </row>
+    <row r="99" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5958,7 +6022,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="3"/>
+      <c r="L99" s="4"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -5971,8 +6035,9 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
-    </row>
-    <row r="100" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y99" s="3"/>
+    </row>
+    <row r="100" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5984,7 +6049,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="3"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -5997,8 +6062,9 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
-    </row>
-    <row r="101" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y100" s="3"/>
+    </row>
+    <row r="101" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6010,7 +6076,7 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="3"/>
+      <c r="L101" s="4"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -6023,10 +6089,12 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50331415-89F6-4784-85EE-9A9521701F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80BB8E-8DD1-494F-BA11-3A63BD4E4F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -201,6 +201,22 @@
   </si>
   <si>
     <t>类名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反作用力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +652,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -654,7 +670,8 @@
     <col min="8" max="8" width="15.109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -679,8 +696,12 @@
       <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -714,8 +735,12 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -776,8 +801,12 @@
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -809,8 +838,12 @@
       <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -842,8 +875,12 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80BB8E-8DD1-494F-BA11-3A63BD4E4F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAF12B-548E-43C9-96FF-4675C8F96511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
@@ -3259,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAF12B-548E-43C9-96FF-4675C8F96511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32F35B-53D2-44CF-824E-CA679F8E0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -217,6 +217,26 @@
   </si>
   <si>
     <t>反作用力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08,0.15,0.15,-0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.1,-0.6,-0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>values#sep=,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +672,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -900,12 +920,24 @@
     </row>
     <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -925,12 +957,24 @@
     </row>
     <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3257,10 +3301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3269,23 +3313,24 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="39.21875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="14" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="9" customWidth="1"/>
-    <col min="13" max="14" width="22.88671875" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="14" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="9" customWidth="1"/>
+    <col min="14" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3299,40 +3344,43 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3346,16 +3394,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>26</v>
@@ -3363,23 +3411,26 @@
       <c r="J2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="5"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3397,7 +3448,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="7"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -3407,8 +3458,9 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3422,40 +3474,43 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="5"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1000</v>
@@ -3466,41 +3521,42 @@
       <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>100</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4">
         <v>1000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>400</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>5</v>
       </c>
-      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1001</v>
@@ -3511,41 +3567,44 @@
       <c r="D6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="11">
         <v>100</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4">
         <v>1000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>400</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>4.5</v>
       </c>
-      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="108.95" x14ac:dyDescent="0.45">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1002</v>
@@ -3556,32 +3615,34 @@
       <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11">
         <v>100</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4">
         <v>1400</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>500</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>6</v>
       </c>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -3589,8 +3650,9 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3603,12 +3665,12 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -3616,8 +3678,9 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3630,12 +3693,12 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -3643,8 +3706,9 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3657,12 +3721,12 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -3670,8 +3734,9 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3684,12 +3749,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -3697,8 +3762,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3711,12 +3777,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -3724,8 +3790,9 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3738,12 +3805,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -3751,8 +3818,9 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3765,12 +3833,12 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -3778,8 +3846,9 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3792,12 +3861,12 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -3805,8 +3874,9 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3819,12 +3889,12 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3832,8 +3902,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3846,12 +3917,12 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -3859,8 +3930,9 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3873,12 +3945,12 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -3886,8 +3958,9 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3900,12 +3973,12 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -3913,8 +3986,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3927,12 +4001,12 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -3940,8 +4014,9 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3954,12 +4029,12 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -3967,8 +4042,9 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3981,12 +4057,12 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -3994,8 +4070,9 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4008,12 +4085,12 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -4021,8 +4098,9 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4035,12 +4113,12 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -4048,8 +4126,9 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4062,12 +4141,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -4075,8 +4154,9 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4089,12 +4169,12 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -4102,8 +4182,9 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4116,12 +4197,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -4129,8 +4210,9 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4143,12 +4225,12 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -4156,8 +4238,9 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4170,12 +4253,12 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -4183,8 +4266,9 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4197,12 +4281,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -4210,8 +4294,9 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4224,12 +4309,12 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -4237,8 +4322,9 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4251,12 +4337,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="3"/>
+      <c r="M32" s="4"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -4264,8 +4350,9 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4278,12 +4365,12 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="3"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4291,8 +4378,9 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4305,12 +4393,12 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="3"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -4318,8 +4406,9 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4332,12 +4421,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="3"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -4345,8 +4434,9 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4359,12 +4449,12 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="3"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -4372,8 +4462,9 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4386,12 +4477,12 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -4399,8 +4490,9 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4413,12 +4505,12 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="3"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -4426,8 +4518,9 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4440,12 +4533,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="3"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="4"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -4453,8 +4546,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4467,7 +4561,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="3"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4480,8 +4574,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4494,7 +4589,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="3"/>
+      <c r="M41" s="4"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4507,8 +4602,9 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4521,7 +4617,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="3"/>
+      <c r="M42" s="4"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4534,8 +4630,9 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4548,7 +4645,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="3"/>
+      <c r="M43" s="4"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4561,8 +4658,9 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4575,7 +4673,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="3"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4588,8 +4686,9 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4602,7 +4701,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="3"/>
+      <c r="M45" s="4"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4615,8 +4714,9 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-    </row>
-    <row r="46" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4629,7 +4729,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="3"/>
+      <c r="M46" s="4"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4642,8 +4742,9 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-    </row>
-    <row r="47" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4656,7 +4757,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="3"/>
+      <c r="M47" s="4"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4669,8 +4770,9 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4683,7 +4785,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="3"/>
+      <c r="M48" s="4"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -4696,8 +4798,9 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4710,7 +4813,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="3"/>
+      <c r="M49" s="4"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -4723,8 +4826,9 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4737,7 +4841,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="3"/>
+      <c r="M50" s="4"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4750,8 +4854,9 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4764,7 +4869,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="3"/>
+      <c r="M51" s="4"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -4777,8 +4882,9 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4791,7 +4897,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="4"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -4804,8 +4910,9 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4818,7 +4925,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="3"/>
+      <c r="M53" s="4"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -4831,8 +4938,9 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4845,7 +4953,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="3"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -4858,8 +4966,9 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4872,7 +4981,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="3"/>
+      <c r="M55" s="4"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -4885,8 +4994,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4899,7 +5009,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="3"/>
+      <c r="M56" s="4"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -4912,8 +5022,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4926,7 +5037,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="3"/>
+      <c r="M57" s="4"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -4939,8 +5050,9 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4953,7 +5065,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="3"/>
+      <c r="M58" s="4"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -4966,8 +5078,9 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4980,7 +5093,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="3"/>
+      <c r="M59" s="4"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -4993,8 +5106,9 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5007,7 +5121,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="3"/>
+      <c r="M60" s="4"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -5020,8 +5134,9 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5034,7 +5149,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="3"/>
+      <c r="M61" s="4"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -5047,8 +5162,9 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5061,7 +5177,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="3"/>
+      <c r="M62" s="4"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -5074,8 +5190,9 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5088,7 +5205,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="3"/>
+      <c r="M63" s="4"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -5101,8 +5218,9 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5115,7 +5233,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="3"/>
+      <c r="M64" s="4"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -5128,8 +5246,9 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-    </row>
-    <row r="65" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5142,7 +5261,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="3"/>
+      <c r="M65" s="4"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -5155,8 +5274,9 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
-    </row>
-    <row r="66" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -5169,7 +5289,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="3"/>
+      <c r="M66" s="4"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -5182,8 +5302,9 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
-    </row>
-    <row r="67" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5196,7 +5317,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="3"/>
+      <c r="M67" s="4"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -5209,8 +5330,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5223,7 +5345,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="3"/>
+      <c r="M68" s="4"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
@@ -5236,8 +5358,9 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5250,7 +5373,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="3"/>
+      <c r="M69" s="4"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
@@ -5263,8 +5386,9 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
-    </row>
-    <row r="70" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5277,7 +5401,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="3"/>
+      <c r="M70" s="4"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
@@ -5290,8 +5414,9 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5304,7 +5429,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="3"/>
+      <c r="M71" s="4"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
@@ -5317,8 +5442,9 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5331,7 +5457,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="3"/>
+      <c r="M72" s="4"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -5344,8 +5470,9 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
-    </row>
-    <row r="73" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5358,7 +5485,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="3"/>
+      <c r="M73" s="4"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -5371,8 +5498,9 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
-    </row>
-    <row r="74" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5385,7 +5513,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="3"/>
+      <c r="M74" s="4"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -5398,8 +5526,9 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5412,7 +5541,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="3"/>
+      <c r="M75" s="4"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -5425,8 +5554,9 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
-    </row>
-    <row r="76" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5439,7 +5569,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="3"/>
+      <c r="M76" s="4"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
@@ -5452,8 +5582,9 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-    </row>
-    <row r="77" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5466,7 +5597,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="3"/>
+      <c r="M77" s="4"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
@@ -5479,8 +5610,9 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-    </row>
-    <row r="78" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5493,7 +5625,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="3"/>
+      <c r="M78" s="4"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
@@ -5506,8 +5638,9 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
-    </row>
-    <row r="79" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5520,7 +5653,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="3"/>
+      <c r="M79" s="4"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -5533,8 +5666,9 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
-    </row>
-    <row r="80" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5547,7 +5681,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="3"/>
+      <c r="M80" s="4"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -5560,8 +5694,9 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
-    </row>
-    <row r="81" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5574,7 +5709,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="3"/>
+      <c r="M81" s="4"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -5587,8 +5722,9 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5601,7 +5737,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="3"/>
+      <c r="M82" s="4"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
@@ -5614,8 +5750,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5628,7 +5765,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="3"/>
+      <c r="M83" s="4"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
@@ -5641,8 +5778,9 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-    </row>
-    <row r="84" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5655,7 +5793,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="3"/>
+      <c r="M84" s="4"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
@@ -5668,8 +5806,9 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-    </row>
-    <row r="85" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5682,7 +5821,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="3"/>
+      <c r="M85" s="4"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -5695,8 +5834,9 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
-    </row>
-    <row r="86" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5709,7 +5849,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="3"/>
+      <c r="M86" s="4"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
@@ -5722,8 +5862,9 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
-    </row>
-    <row r="87" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5736,7 +5877,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="3"/>
+      <c r="M87" s="4"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
@@ -5749,8 +5890,9 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
-    </row>
-    <row r="88" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5763,7 +5905,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="3"/>
+      <c r="M88" s="4"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
@@ -5776,8 +5918,9 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
-    </row>
-    <row r="89" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5790,7 +5933,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="3"/>
+      <c r="M89" s="4"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -5803,8 +5946,9 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
-    </row>
-    <row r="90" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5817,7 +5961,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="3"/>
+      <c r="M90" s="4"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -5830,8 +5974,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5844,7 +5989,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="3"/>
+      <c r="M91" s="4"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
@@ -5857,8 +6002,9 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
-    </row>
-    <row r="92" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5871,7 +6017,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="3"/>
+      <c r="M92" s="4"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -5884,8 +6030,9 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
-    </row>
-    <row r="93" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5898,7 +6045,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="3"/>
+      <c r="M93" s="4"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -5911,8 +6058,9 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
-    </row>
-    <row r="94" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5925,7 +6073,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="3"/>
+      <c r="M94" s="4"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -5938,8 +6086,9 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
-    </row>
-    <row r="95" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5952,7 +6101,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="3"/>
+      <c r="M95" s="4"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
@@ -5965,8 +6114,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5979,7 +6129,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="3"/>
+      <c r="M96" s="4"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
@@ -5992,8 +6142,9 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
-    </row>
-    <row r="97" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6006,7 +6157,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="3"/>
+      <c r="M97" s="4"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -6019,8 +6170,9 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
-    </row>
-    <row r="98" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6033,7 +6185,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="3"/>
+      <c r="M98" s="4"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
@@ -6046,8 +6198,9 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
-    </row>
-    <row r="99" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6060,7 +6213,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="3"/>
+      <c r="M99" s="4"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -6073,8 +6226,9 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
-    </row>
-    <row r="100" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6087,7 +6241,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="3"/>
+      <c r="M100" s="4"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -6100,8 +6254,9 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
-    </row>
-    <row r="101" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Z100" s="3"/>
+    </row>
+    <row r="101" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6114,7 +6269,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="3"/>
+      <c r="M101" s="4"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -6127,6 +6282,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32F35B-53D2-44CF-824E-CA679F8E0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E53483-B387-4DFF-B07D-D26183EB6600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -237,6 +237,13 @@
   </si>
   <si>
     <t>values#sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salvo</t>
+  </si>
+  <si>
+    <t>齐射</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +682,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:G8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -924,13 +931,13 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E53483-B387-4DFF-B07D-D26183EB6600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB64FEC-635A-4CC6-A46B-9EC68CCC96F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每 0.5s 自动旋转一圈。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -244,6 +240,34 @@
   </si>
   <si>
     <t>齐射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配并挥舞一对单分子双刃剑。
+攻击速度与武器和构造物的射速修正成正比。超过+100%的修正增加的是伤害而不是攻击速度。
+伤害随着你的速度增加，并且与撞击伤害修正的25%成比例。
+在攻击时，由你挥舞的剑能摧毁敌方的抛射物和爆炸物，并以火花抛射物进行反击，其伤害和数量由摧毁的抛射物的伤害决定。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射一连串狂野的热导导导弹，在小范围内爆炸。
+在不开火时，你每隔0.5秒储存4枚导弹，但随着储存量增加，回报逐渐减少。
+当你开火时，释放全部储存的导弹。
+武器的弹道数量修正影响每个间隔内储存的导弹数量。
+武器的射速修正影响间隔持续时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射一个呈扇形散开的子弹阵列。
+子弹在撞击时形成锥形爆炸，对其他目标造成爆炸伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitShot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,9 +704,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -690,7 +714,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="9" customWidth="1"/>
     <col min="6" max="6" width="15" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="9" customWidth="1"/>
@@ -721,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -763,10 +787,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -826,13 +850,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -857,13 +881,13 @@
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -888,7 +912,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="145.25" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1001</v>
@@ -897,10 +921,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -925,19 +949,19 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -962,19 +986,19 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -3351,25 +3375,25 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -3401,10 +3425,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>4</v>
@@ -3413,13 +3437,13 @@
         <v>4</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -3481,25 +3505,25 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -3523,20 +3547,20 @@
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
         <v>100</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4">
         <v>1000</v>
@@ -3569,22 +3593,22 @@
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="11">
         <v>100</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4">
         <v>1000</v>
@@ -3617,22 +3641,22 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="11">
         <v>100</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4">
         <v>1400</v>
@@ -6321,7 +6345,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB64FEC-635A-4CC6-A46B-9EC68CCC96F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD9A1C-E0FD-4879-B3FC-B7616B04141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,14 +250,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发射一连串狂野的热导导导弹，在小范围内爆炸。
-在不开火时，你每隔0.5秒储存4枚导弹，但随着储存量增加，回报逐渐减少。
-当你开火时，释放全部储存的导弹。
-武器的弹道数量修正影响每个间隔内储存的导弹数量。
-武器的射速修正影响间隔持续时间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>分裂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,6 +260,14 @@
   </si>
   <si>
     <t>SplitShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射一连串狂野的热导导导弹，在小范围内爆炸。
+在不开火时，你每隔0.5秒储存4枚导弹，但随着储存量增加，回报逐渐减少。
+当你开火时，释放全部储存的导弹。
+武器的子弹数量修正影响每个间隔内储存的导弹数量。
+武器的射速修正影响间隔持续时间。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +706,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>49</v>
@@ -992,13 +992,13 @@
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD9A1C-E0FD-4879-B3FC-B7616B04141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BD562-95D0-4BE3-A4BC-38009C7B0C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -270,6 +270,40 @@
 武器的射速修正影响间隔持续时间。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>光环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热的环会燃烧其效果半径内的目标，造成 300 点伤害/秒
+受到烧伤的目标会被点燃。除非另有说明，被点燃的目标每秒受到 120 点燃烧伤害，持续 3 秒
+当光环燃烧目标时，你会受到护盾自伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,120,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啥也没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseShield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -387,6 +421,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -703,10 +747,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6324,12 +6368,1323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE561C8-4E69-4E2C-B360-72261F250653}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="43.77734375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="24.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+    </row>
+    <row r="2" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+    </row>
+    <row r="3" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+    </row>
+    <row r="4" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+    </row>
+    <row r="5" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="6" spans="1:41" ht="90.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+    </row>
+    <row r="7" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+    </row>
+    <row r="8" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+    </row>
+    <row r="9" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="10" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="11" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+    </row>
+    <row r="12" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+    </row>
+    <row r="13" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+    </row>
+    <row r="14" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+    </row>
+    <row r="15" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+    </row>
+    <row r="16" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+    </row>
+    <row r="17" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+    </row>
+    <row r="18" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+    </row>
+    <row r="19" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+    </row>
+    <row r="20" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+    </row>
+    <row r="21" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+    </row>
+    <row r="22" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+    </row>
+    <row r="23" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+    </row>
+    <row r="24" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+    </row>
+    <row r="25" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BD562-95D0-4BE3-A4BC-38009C7B0C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19B8B0-1857-4080-866F-799C6CF4DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -302,6 +302,22 @@
   </si>
   <si>
     <t>BaseShield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾半径内的目标和敌方子弹速度减慢 50%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temporal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6371,7 +6387,7 @@
   <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6697,11 +6713,21 @@
     </row>
     <row r="7" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19B8B0-1857-4080-866F-799C6CF4DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43D329-37B3-4AEB-86CB-56E0EA222177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -318,6 +318,34 @@
   </si>
   <si>
     <t>Temporal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_down</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6384,20 +6412,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE561C8-4E69-4E2C-B360-72261F250653}">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="43.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="5" max="7" width="18.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="24.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" ht="24.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6413,11 +6441,15 @@
       <c r="E1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -6451,8 +6483,10 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="8"/>
-    </row>
-    <row r="2" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+    </row>
+    <row r="2" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6468,11 +6502,15 @@
       <c r="E2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -6506,8 +6544,10 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
-    </row>
-    <row r="3" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6515,8 +6555,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -6551,8 +6591,10 @@
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
-    </row>
-    <row r="4" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+    </row>
+    <row r="4" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -6566,11 +6608,15 @@
         <v>10</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -6604,8 +6650,10 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
-    </row>
-    <row r="5" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+    </row>
+    <row r="5" spans="1:43" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1000</v>
@@ -6619,16 +6667,20 @@
       <c r="E5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -6657,8 +6709,10 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" ht="90.8" x14ac:dyDescent="0.45">
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+    </row>
+    <row r="6" spans="1:43" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1001</v>
@@ -6672,16 +6726,20 @@
       <c r="E6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -6710,8 +6768,10 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+    </row>
+    <row r="7" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1002</v>
@@ -6725,16 +6785,20 @@
       <c r="E7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -6763,21 +6827,23 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-    </row>
-    <row r="8" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+    </row>
+    <row r="8" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -6806,21 +6872,23 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-    </row>
-    <row r="9" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+    </row>
+    <row r="9" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -6849,21 +6917,23 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-    </row>
-    <row r="10" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+    </row>
+    <row r="10" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -6892,21 +6962,23 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-    </row>
-    <row r="11" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+    </row>
+    <row r="11" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -6935,21 +7007,23 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-    </row>
-    <row r="12" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+    </row>
+    <row r="12" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -6978,21 +7052,23 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-    </row>
-    <row r="13" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+    </row>
+    <row r="13" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -7021,21 +7097,23 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+    </row>
+    <row r="14" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -7064,21 +7142,23 @@
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-    </row>
-    <row r="15" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+    </row>
+    <row r="15" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -7107,21 +7187,23 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+    </row>
+    <row r="16" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -7150,21 +7232,23 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-    </row>
-    <row r="17" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+    </row>
+    <row r="17" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -7193,21 +7277,23 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-    </row>
-    <row r="18" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+    </row>
+    <row r="18" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -7236,21 +7322,23 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-    </row>
-    <row r="19" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+    </row>
+    <row r="19" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -7279,21 +7367,23 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-    </row>
-    <row r="20" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+    </row>
+    <row r="20" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -7322,21 +7412,23 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-    </row>
-    <row r="21" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+    </row>
+    <row r="21" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -7365,21 +7457,23 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-    </row>
-    <row r="22" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+    </row>
+    <row r="22" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -7408,21 +7502,23 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-    </row>
-    <row r="23" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+    </row>
+    <row r="23" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -7451,21 +7547,23 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-    </row>
-    <row r="24" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+    </row>
+    <row r="24" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -7494,21 +7592,23 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-    </row>
-    <row r="25" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+    </row>
+    <row r="25" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -7537,21 +7637,23 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-    </row>
-    <row r="26" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+    </row>
+    <row r="26" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -7580,21 +7682,23 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-    </row>
-    <row r="27" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+    </row>
+    <row r="27" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -7623,21 +7727,23 @@
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-    </row>
-    <row r="28" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+    </row>
+    <row r="28" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -7666,21 +7772,23 @@
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-    </row>
-    <row r="29" spans="1:41" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+    </row>
+    <row r="29" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -7709,6 +7817,8 @@
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43D329-37B3-4AEB-86CB-56E0EA222177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45224B30-3626-4EA8-8A8B-B812A5C31371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -346,6 +346,32 @@
   </si>
   <si>
     <t>cool_down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceField</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力场激活时，增加20%的推力和伤害
+每个位于护盾效果半径内的威胁还会进一步提升伤害
+最大伤害加成为+100%，受护盾效果强度调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,9 +818,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3422,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6414,8 +6440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE561C8-4E69-4E2C-B360-72261F250653}">
   <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6830,15 +6856,29 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
     </row>
-    <row r="8" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45224B30-3626-4EA8-8A8B-B812A5C31371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37869801-903A-4217-8D37-FC302D1775D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -374,12 +374,26 @@
     <t>0.2,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>在你周围创造一个强大的电磁冲击波
+以两个径向波形式命中，较小的波形造成两倍的伤害
+同时在一个240度的锥形范围内发射碎片投射物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +421,21 @@
       <color theme="1"/>
       <name val="Dream Han Sans J W18"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HarmonyOS Sans SC Medium"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HarmonyOS Sans SC Medium"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -466,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -488,9 +517,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -501,6 +527,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -818,9 +862,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -846,25 +890,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H1" s="8"/>
@@ -885,25 +929,25 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="7"/>
@@ -924,15 +968,15 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -951,25 +995,25 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="7"/>
@@ -990,23 +1034,23 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="22.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19">
         <v>1000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="21">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="21">
         <v>0</v>
       </c>
       <c r="H5" s="4"/>
@@ -1026,24 +1070,24 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="145.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:23" ht="127.1" x14ac:dyDescent="0.45">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19">
         <v>1001</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="21">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="21">
         <v>0</v>
       </c>
       <c r="H6" s="4"/>
@@ -1063,24 +1107,24 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:23" ht="95.6" x14ac:dyDescent="0.45">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19">
         <v>1002</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="21">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="21">
         <v>0</v>
       </c>
       <c r="H7" s="4"/>
@@ -1100,24 +1144,24 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:23" ht="32.700000000000003" x14ac:dyDescent="0.45">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19">
         <v>1003</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="21">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="21">
         <v>0</v>
       </c>
       <c r="H8" s="4"/>
@@ -1137,14 +1181,26 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+    <row r="9" spans="1:23" ht="58.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="22"/>
+      <c r="B9" s="19">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1162,7 +1218,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="58.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3448,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3476,37 +3532,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="8"/>
@@ -3526,37 +3582,37 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="7"/>
@@ -3576,19 +3632,19 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -3606,37 +3662,37 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="7"/>
@@ -3656,33 +3712,33 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19">
         <v>1000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
         <v>100</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="21">
         <v>1000</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="21">
         <v>400</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="21">
         <v>5</v>
       </c>
       <c r="L5" s="4"/>
@@ -3702,35 +3758,35 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19">
         <v>1001</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="20">
         <v>100</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="21">
         <v>1000</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="21">
         <v>400</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="21">
         <v>4.5</v>
       </c>
       <c r="L6" s="4"/>
@@ -3749,36 +3805,36 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="108.95" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:26" ht="95.6" x14ac:dyDescent="0.45">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19">
         <v>1002</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="20">
         <v>100</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="21">
         <v>1400</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="21">
         <v>500</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="21">
         <v>6</v>
       </c>
       <c r="L7" s="4"/>
@@ -3797,7 +3853,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6446,8 +6502,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="43.77734375" style="15" customWidth="1"/>
-    <col min="5" max="7" width="18.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="43.77734375" style="14" customWidth="1"/>
+    <col min="5" max="7" width="18.6640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6461,16 +6517,16 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -6522,16 +6578,16 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -6579,10 +6635,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -6630,14 +6686,14 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -6687,16 +6743,16 @@
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -6746,16 +6802,16 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6805,16 +6861,16 @@
       <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6864,16 +6920,16 @@
       <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -6919,10 +6975,10 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6964,10 +7020,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7009,10 +7065,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -7054,10 +7110,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -7099,10 +7155,10 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -7144,10 +7200,10 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -7189,10 +7245,10 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -7234,10 +7290,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -7279,10 +7335,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -7324,10 +7380,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -7369,10 +7425,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -7414,10 +7470,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -7459,10 +7515,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -7504,10 +7560,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -7549,10 +7605,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -7594,10 +7650,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -7639,10 +7695,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -7684,10 +7740,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -7729,10 +7785,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -7774,10 +7830,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -7819,10 +7875,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37869801-903A-4217-8D37-FC302D1775D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C14F5D-576A-45E4-8E0B-8005E1158EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -386,6 +386,21 @@
   </si>
   <si>
     <t>Pulse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手榴弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射一枚爆炸性集束手榴弹
+在撞击或延迟后爆炸
+初始爆炸后，集束炸药遍布该区域
+集束覆盖范围随爆炸半径增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrenadeShooter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +876,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1220,12 +1235,24 @@
     </row>
     <row r="10" spans="1:23" ht="58.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1243,7 +1270,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="79.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3504,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:K7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C14F5D-576A-45E4-8E0B-8005E1158EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004FF7B-A5AB-4127-8F2F-131BCB119497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -401,6 +401,10 @@
   </si>
   <si>
     <t>GrenadeShooter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎狗2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
@@ -3531,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3882,15 +3886,33 @@
     </row>
     <row r="8" spans="1:26" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="20">
+        <v>100</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="21">
+        <v>1400</v>
+      </c>
+      <c r="J8" s="21">
+        <v>500</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004FF7B-A5AB-4127-8F2F-131BCB119497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F16D80-6DCF-4942-8EB5-7F7A6725698D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -375,12 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在你周围创造一个强大的电磁冲击波
-以两个径向波形式命中，较小的波形造成两倍的伤害
-同时在一个240度的锥形范围内发射碎片投射物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>脉冲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,6 +399,13 @@
   </si>
   <si>
     <t>猎狗2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你周围创造一个强大的电磁冲击波
+以两个径向波形式命中，较小的波形造成两倍的伤害
+同时在一个240度的锥形范围内发射碎片投射物
+射击速度修正：2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -880,10 +881,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1200,19 +1201,19 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" ht="58.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="19">
         <v>1004</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="F9" s="21">
         <v>0</v>
@@ -1243,13 +1244,13 @@
         <v>1005</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -3535,7 +3536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3890,7 +3891,7 @@
         <v>1003</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>30</v>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F16D80-6DCF-4942-8EB5-7F7A6725698D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91327D-1C13-4542-89A5-B1894A2B9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -118,19 +118,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>旋转速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>acceleration</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>deceleration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotation_speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -236,20 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Salvo</t>
-  </si>
-  <si>
-    <t>齐射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装配并挥舞一对单分子双刃剑。
-攻击速度与武器和构造物的射速修正成正比。超过+100%的修正增加的是伤害而不是攻击速度。
-伤害随着你的速度增加，并且与撞击伤害修正的25%成比例。
-在攻击时，由你挥舞的剑能摧毁敌方的抛射物和爆炸物，并以火花抛射物进行反击，其伤害和数量由摧毁的抛射物的伤害决定。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>分裂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,14 +238,6 @@
   </si>
   <si>
     <t>SplitShot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射一连串狂野的热导导导弹，在小范围内爆炸。
-在不开火时，你每隔0.5秒储存4枚导弹，但随着储存量增加，回报逐渐减少。
-当你开火时，释放全部储存的导弹。
-武器的子弹数量修正影响每个间隔内储存的导弹数量。
-武器的射速修正影响间隔持续时间。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -398,14 +368,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猎狗2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>在你周围创造一个强大的电磁冲击波
 以两个径向波形式命中，较小的波形造成两倍的伤害
 同时在一个240度的锥形范围内发射碎片投射物
 射击速度修正：2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥舞一对剑。
+攻击速度与武器的射速修正成正比。超过 +100% 的修正增加的是伤害而不是攻击速度。
+伤害随你的速度增加，并且与撞击伤害修正的 25% 成比例。
+剑能摧毁敌方的抛射物。
+消灭一个敌人后，发射子弹，伤害减半。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量子叠加外壳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度置换屏障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔 5s，平行宇宙将转换状态。
+吸收状态：受到的所有伤害被吸收进平行宇宙。
+释放状态：受到的第一次伤害会叠加在吸收状态吸收的伤害。离开释放状态后，吸收的伤害清零。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuantumOverlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害时，有 50% 的机会不受到伤害，也可能会受到双倍伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 10 个基础身体
+每升一级，+1 身体
+每个身体受到的伤害为原始伤害的 75%
+每个身体 +0.5% 的总伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1,0.75,0.05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,12 +898,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -926,10 +945,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -965,10 +984,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1031,10 +1050,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1059,13 +1078,13 @@
         <v>1000</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="21">
         <v>0</v>
@@ -1090,7 +1109,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="127.1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="111.35" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="19">
         <v>1001</v>
@@ -1099,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>14</v>
@@ -1127,16 +1146,16 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="95.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="32.700000000000003" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="19">
         <v>1002</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>49</v>
@@ -1164,19 +1183,19 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="32.700000000000003" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:23" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="22"/>
       <c r="B8" s="19">
         <v>1003</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F8" s="21">
         <v>0</v>
@@ -1201,24 +1220,24 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:23" ht="58.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
       <c r="B9" s="19">
         <v>1004</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
@@ -1238,26 +1257,14 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" ht="58.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="79.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1275,7 +1282,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" ht="79.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1965,7 +1972,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
+      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -3500,31 +3507,6 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3534,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3551,19 +3533,18 @@
     <col min="7" max="8" width="14" style="9" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="17.109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="9" customWidth="1"/>
-    <col min="14" max="15" width="22.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="9" customWidth="1"/>
+    <col min="13" max="14" width="22.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3577,43 +3558,40 @@
         <v>9</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
@@ -3627,10 +3605,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>4</v>
@@ -3639,31 +3617,28 @@
         <v>4</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
@@ -3676,12 +3651,12 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -3691,9 +3666,8 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -3707,16 +3681,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>19</v>
@@ -3724,45 +3698,42 @@
       <c r="J4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="B5" s="19">
         <v>1000</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20">
         <v>100</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="21">
         <v>1000</v>
@@ -3770,26 +3741,23 @@
       <c r="J5" s="21">
         <v>400</v>
       </c>
-      <c r="K5" s="21">
-        <v>5</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:25" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="19">
         <v>1001</v>
@@ -3798,19 +3766,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="20">
         <v>100</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="21">
         <v>1000</v>
@@ -3818,26 +3786,23 @@
       <c r="J6" s="21">
         <v>400</v>
       </c>
-      <c r="K6" s="21">
-        <v>4.5</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="95.6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:25" ht="95.6" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="19">
         <v>1002</v>
@@ -3846,19 +3811,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="20">
         <v>100</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="21">
         <v>1400</v>
@@ -3866,16 +3831,14 @@
       <c r="J7" s="21">
         <v>500</v>
       </c>
-      <c r="K7" s="21">
-        <v>6</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -3883,30 +3846,29 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+    </row>
+    <row r="8" spans="1:25" ht="64.150000000000006" x14ac:dyDescent="0.45">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19">
         <v>1003</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I8" s="21">
         <v>1400</v>
@@ -3916,12 +3878,12 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -3929,9 +3891,8 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3944,12 +3905,12 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -3957,9 +3918,8 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:25" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3972,12 +3932,12 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -3985,9 +3945,8 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4000,12 +3959,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -4013,9 +3972,8 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4028,12 +3986,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -4041,9 +3999,8 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4056,12 +4013,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -4069,9 +4026,8 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4084,12 +4040,12 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -4097,9 +4053,8 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4112,12 +4067,12 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -4125,9 +4080,8 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4140,12 +4094,12 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -4153,9 +4107,8 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4168,12 +4121,12 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -4181,9 +4134,8 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4196,12 +4148,12 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -4209,9 +4161,8 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4224,12 +4175,12 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -4237,9 +4188,8 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4252,12 +4202,12 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -4265,9 +4215,8 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4280,12 +4229,12 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -4293,9 +4242,8 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4308,12 +4256,12 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -4321,9 +4269,8 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4336,12 +4283,12 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -4349,9 +4296,8 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4364,12 +4310,12 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -4377,9 +4323,8 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4392,12 +4337,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -4405,9 +4350,8 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4420,12 +4364,12 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -4433,9 +4377,8 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4448,12 +4391,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -4461,9 +4404,8 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4476,12 +4418,12 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -4489,9 +4431,8 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4504,12 +4445,12 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -4517,9 +4458,8 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4532,12 +4472,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -4545,9 +4485,8 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4560,12 +4499,12 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -4573,9 +4512,8 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4588,12 +4526,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -4601,9 +4539,8 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4616,12 +4553,12 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4629,9 +4566,8 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4644,12 +4580,12 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -4657,9 +4593,8 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4672,12 +4607,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -4685,9 +4620,8 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4700,12 +4634,12 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -4713,9 +4647,8 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4728,12 +4661,12 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -4741,9 +4674,8 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4756,12 +4688,12 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -4769,9 +4701,8 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4784,12 +4715,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -4797,9 +4728,8 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4812,7 +4742,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4825,9 +4755,8 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4840,7 +4769,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4853,9 +4782,8 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4868,7 +4796,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4881,9 +4809,8 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4896,7 +4823,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4909,9 +4836,8 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4924,7 +4850,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4937,9 +4863,8 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4952,7 +4877,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4965,9 +4890,8 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4980,7 +4904,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4993,9 +4917,8 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5008,7 +4931,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -5021,9 +4944,8 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5036,7 +4958,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -5049,9 +4971,8 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5064,7 +4985,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -5077,9 +4998,8 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5092,7 +5012,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -5105,9 +5025,8 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5120,7 +5039,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5133,9 +5052,8 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5148,7 +5066,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
+      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -5161,9 +5079,8 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5176,7 +5093,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
+      <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -5189,9 +5106,8 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5204,7 +5120,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -5217,9 +5133,8 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5232,7 +5147,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -5245,9 +5160,8 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5260,7 +5174,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -5273,9 +5187,8 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5288,7 +5201,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -5301,9 +5214,8 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5316,7 +5228,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -5329,9 +5241,8 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5344,7 +5255,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -5357,9 +5268,8 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-    </row>
-    <row r="60" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5372,7 +5282,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -5385,9 +5295,8 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5400,7 +5309,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -5413,9 +5322,8 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5428,7 +5336,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -5441,9 +5349,8 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5456,7 +5363,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -5469,9 +5376,8 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5484,7 +5390,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -5497,9 +5403,8 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5512,7 +5417,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -5525,9 +5430,8 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -5540,7 +5444,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -5553,9 +5457,8 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5568,7 +5471,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -5581,9 +5484,8 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5596,7 +5498,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
@@ -5609,9 +5511,8 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-    </row>
-    <row r="69" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5624,7 +5525,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
@@ -5637,9 +5538,8 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-    </row>
-    <row r="70" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5652,7 +5552,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
@@ -5665,9 +5565,8 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-    </row>
-    <row r="71" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5680,7 +5579,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
@@ -5693,9 +5592,8 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-    </row>
-    <row r="72" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5708,7 +5606,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -5721,9 +5619,8 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-    </row>
-    <row r="73" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5736,7 +5633,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -5749,9 +5646,8 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-    </row>
-    <row r="74" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5764,7 +5660,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -5777,9 +5673,8 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-    </row>
-    <row r="75" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5792,7 +5687,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -5805,9 +5700,8 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5820,7 +5714,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
+      <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
@@ -5833,9 +5727,8 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5848,7 +5741,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
@@ -5861,9 +5754,8 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5876,7 +5768,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
+      <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
@@ -5889,9 +5781,8 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-    </row>
-    <row r="79" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5904,7 +5795,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
+      <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -5917,9 +5808,8 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-    </row>
-    <row r="80" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5932,7 +5822,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -5945,9 +5835,8 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-    </row>
-    <row r="81" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5960,7 +5849,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
+      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -5973,9 +5862,8 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-    </row>
-    <row r="82" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5988,7 +5876,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
+      <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
@@ -6001,9 +5889,8 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6016,7 +5903,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
@@ -6029,9 +5916,8 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-    </row>
-    <row r="84" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6044,7 +5930,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
@@ -6057,9 +5943,8 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-    </row>
-    <row r="85" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6072,7 +5957,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
+      <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -6085,9 +5970,8 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-    </row>
-    <row r="86" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6100,7 +5984,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
+      <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
@@ -6113,9 +5997,8 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-    </row>
-    <row r="87" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6128,7 +6011,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
+      <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
@@ -6141,9 +6024,8 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-    </row>
-    <row r="88" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6156,7 +6038,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
+      <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
@@ -6169,9 +6051,8 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6184,7 +6065,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -6197,9 +6078,8 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-    </row>
-    <row r="90" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6212,7 +6092,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
+      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -6225,9 +6105,8 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6240,7 +6119,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
+      <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
@@ -6253,9 +6132,8 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-    </row>
-    <row r="92" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6268,7 +6146,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
+      <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -6281,9 +6159,8 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-    </row>
-    <row r="93" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6296,7 +6173,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
+      <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -6309,9 +6186,8 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-    </row>
-    <row r="94" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6324,7 +6200,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
+      <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -6337,9 +6213,8 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-    </row>
-    <row r="95" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6352,7 +6227,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
+      <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
@@ -6365,9 +6240,8 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6380,7 +6254,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
@@ -6393,9 +6267,8 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-    </row>
-    <row r="97" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6408,7 +6281,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -6421,9 +6294,8 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-    </row>
-    <row r="98" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6436,7 +6308,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
+      <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
@@ -6449,9 +6321,8 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-    </row>
-    <row r="99" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6464,7 +6335,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -6477,9 +6348,8 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-    </row>
-    <row r="100" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6492,7 +6362,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
+      <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -6505,9 +6375,8 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-    </row>
-    <row r="101" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6520,7 +6389,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
+      <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -6533,7 +6402,6 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6544,14 +6412,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE561C8-4E69-4E2C-B360-72261F250653}">
-  <dimension ref="A1:AQ29"/>
+  <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C8"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="43.77734375" style="14" customWidth="1"/>
     <col min="5" max="7" width="18.6640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" customWidth="1"/>
@@ -6571,13 +6440,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>12</v>
@@ -6632,13 +6501,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -6741,10 +6610,10 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -6791,22 +6660,22 @@
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -6850,22 +6719,22 @@
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -6909,22 +6778,22 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="G7" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6968,22 +6837,22 @@
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -7021,17 +6890,31 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
     </row>
-    <row r="9" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" ht="32.700000000000003" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="20">
+        <v>100</v>
+      </c>
+      <c r="G9" s="21">
+        <v>6</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -7066,12 +6949,22 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
     </row>
-    <row r="10" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+    <row r="10" spans="1:43" ht="90.8" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="4"/>
@@ -7966,6 +7859,51 @@
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
     </row>
+    <row r="30" spans="1:43" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7982,7 +7920,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91327D-1C13-4542-89A5-B1894A2B9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E9EE38-73A9-4C16-B3B4-581452298437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -425,6 +425,23 @@
   </si>
   <si>
     <t>10,1,0.75,0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔粉碎机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害时额外发射一枚子弹
++5 %伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breaker</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -901,9 +918,9 @@
   <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3518,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3848,9 +3865,11 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="64.150000000000006" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="19">
-        <v>1003</v>
+        <v>1234</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>88</v>
@@ -3892,17 +3911,35 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="20">
+        <v>100</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1400</v>
+      </c>
+      <c r="J9" s="21">
+        <v>500</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="3"/>
@@ -6414,8 +6451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE561C8-4E69-4E2C-B360-72261F250653}">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E9EE38-73A9-4C16-B3B4-581452298437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFCF069-8AFB-4148-857A-9BDEC3349B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -142,13 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击时，8% 的几率强化子弹
-武器射速、武器扩散和射弹速度提高 15%
-+15% 对攻击时降低移速的抵抗力
-- 10% 最大护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>+3 子弹数量
 +10% 武器射速
 -60% 武器扩散
@@ -216,10 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.08,0.15,0.15,-0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3,0.1,-0.6,-0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,13 +354,6 @@
   </si>
   <si>
     <t>GrenadeShooter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在你周围创造一个强大的电磁冲击波
-以两个径向波形式命中，较小的波形造成两倍的伤害
-同时在一个240度的锥形范围内发射碎片投射物
-射击速度修正：2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -442,6 +424,23 @@
   </si>
   <si>
     <t>Breaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你周围创造一个强大的电磁冲击波
+同时在一个240度的锥形范围内发射子弹，伤害为 50%
+射击速度修正：4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时，8% 的几率强化子弹
+武器射速、武器扩散和射弹速度提高 15%
+- 60% 射击减速度
+- 10% 最大护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08,0.15,-0.6,-0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -918,9 +917,9 @@
   <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -962,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -1067,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1095,13 +1094,13 @@
         <v>1000</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="21">
         <v>0</v>
@@ -1135,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>14</v>
@@ -1169,13 +1168,13 @@
         <v>1002</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="F7" s="21">
         <v>0</v>
@@ -1200,19 +1199,19 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="50.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="19">
         <v>1003</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="21">
         <v>0</v>
@@ -1243,13 +1242,13 @@
         <v>1004</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -3535,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3575,16 +3574,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>21</v>
@@ -3622,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>23</v>
@@ -3698,16 +3697,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>19</v>
@@ -3737,20 +3736,20 @@
         <v>1000</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20">
         <v>100</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="21">
         <v>1000</v>
@@ -3783,10 +3782,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F6" s="20">
         <v>100</v>
@@ -3828,10 +3827,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="20">
         <v>100</v>
@@ -3872,22 +3871,22 @@
         <v>1234</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I8" s="21">
         <v>1400</v>
@@ -3917,22 +3916,22 @@
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I9" s="21">
         <v>1400</v>
@@ -6451,7 +6450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE561C8-4E69-4E2C-B360-72261F250653}">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -6477,13 +6476,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>12</v>
@@ -6538,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>23</v>
@@ -6647,10 +6646,10 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -6697,22 +6696,22 @@
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -6756,22 +6755,22 @@
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -6815,22 +6814,22 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6874,22 +6873,22 @@
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="F8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6933,13 +6932,13 @@
         <v>1004</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
@@ -6948,7 +6947,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -6994,13 +6993,13 @@
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFCF069-8AFB-4148-857A-9BDEC3349B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB5B61-A313-4609-BC23-CD4728384CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -357,14 +357,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>挥舞一对剑。
-攻击速度与武器的射速修正成正比。超过 +100% 的修正增加的是伤害而不是攻击速度。
-伤害随你的速度增加，并且与撞击伤害修正的 25% 成比例。
-剑能摧毁敌方的抛射物。
-消灭一个敌人后，发射子弹，伤害减半。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>量子叠加外壳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,6 +433,13 @@
   </si>
   <si>
     <t>0.08,0.15,-0.6,-0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥舞一对剑。
+攻击速度与武器的射速修正成正比。超过 +100% 的修正增加的是伤害而不是攻击速度。
+伤害随你的速度增加，并且与撞击伤害修正的 25% 成比例。
+消灭一个敌人后，发射子弹，伤害减半。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +915,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1124,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="111.35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="95.6" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="19">
         <v>1001</v>
@@ -1134,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>14</v>
@@ -1208,7 +1207,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>74</v>
@@ -3534,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3782,10 +3781,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="F6" s="20">
         <v>100</v>
@@ -3871,22 +3870,22 @@
         <v>1234</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="21">
         <v>1400</v>
@@ -3916,22 +3915,22 @@
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="21">
         <v>1400</v>
@@ -6932,13 +6931,13 @@
         <v>1004</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
@@ -6947,7 +6946,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -6993,10 +6992,10 @@
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB5B61-A313-4609-BC23-CD4728384CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05FA616-2BF7-412C-8B01-1C8926CB6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -221,11 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投射一个呈扇形散开的子弹阵列。
-子弹在撞击时形成锥形爆炸，对其他目标造成爆炸伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SplitShot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -343,13 +338,6 @@
   </si>
   <si>
     <t>手榴弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射一枚爆炸性集束手榴弹
-在撞击或延迟后爆炸
-初始爆炸后，集束炸药遍布该区域
-集束覆盖范围随爆炸半径增加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -419,12 +407,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在你周围创造一个强大的电磁冲击波
-同时在一个240度的锥形范围内发射子弹，伤害为 50%
-射击速度修正：4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击时，8% 的几率强化子弹
 武器射速、武器扩散和射弹速度提高 15%
 - 60% 射击减速度
@@ -437,9 +419,45 @@
   </si>
   <si>
     <t>挥舞一对剑。
-攻击速度与武器的射速修正成正比。超过 +100% 的修正增加的是伤害而不是攻击速度。
-伤害随你的速度增加，并且与撞击伤害修正的 25% 成比例。
+攻击速度与武器的射速修正成正比。超过 +100% 的修正增加伤害而不是攻击速度。
 消灭一个敌人后，发射子弹，伤害减半。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大摆锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个大摆锤
+射击会将大摆锤扔出，再次点击射击会召回
+大摆锤会穿过敌人
+大摆锤每对一名敌人造成伤害，发射一圈伤害为 50% 的子弹
+伤害修正：2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pendulum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你周围创造一个强大的电磁冲击波
+同时发射子弹，伤害为 50%
+射击速度修正：4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击子弹为圆形
+射击时子弹数量 +3
+子弹寿命 -50%
+子弹在撞击时形成锥形爆炸，对其他目标造成爆炸伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射一枚爆炸性集束手榴弹
+在撞击或延迟后爆炸
+初始爆炸后，集束炸药遍布该区域
+集束覆盖范围随爆炸半径增加
+射击速度修正：4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,12 +931,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1124,19 +1142,19 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="95.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="64.150000000000006" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="19">
         <v>1001</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F6" s="21">
         <v>0</v>
@@ -1161,19 +1179,19 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="32.700000000000003" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:23" ht="50.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="22"/>
       <c r="B7" s="19">
         <v>1002</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F7" s="21">
         <v>0</v>
@@ -1198,24 +1216,24 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="50.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:23" ht="98.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
       <c r="B8" s="19">
         <v>1003</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="21">
+      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4"/>
@@ -1235,24 +1253,26 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" ht="58.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:23" ht="79.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" s="19">
-        <v>1004</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="21">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="21">
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
@@ -1272,14 +1292,26 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" ht="79.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+    <row r="10" spans="1:23" ht="64.150000000000006" x14ac:dyDescent="0.45">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1937,7 +1969,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -1962,7 +1994,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -3471,56 +3503,6 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3781,10 +3763,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="20">
         <v>100</v>
@@ -3870,22 +3852,22 @@
         <v>1234</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="E8" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="21">
         <v>1400</v>
@@ -3915,22 +3897,22 @@
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="21">
         <v>1400</v>
@@ -6450,7 +6432,7 @@
   <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6481,7 +6463,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>12</v>
@@ -6645,10 +6627,10 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -6695,22 +6677,22 @@
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -6754,22 +6736,22 @@
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -6813,22 +6795,22 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6872,22 +6854,22 @@
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="F8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6931,13 +6913,13 @@
         <v>1004</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
@@ -6946,7 +6928,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -6992,13 +6974,13 @@
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05FA616-2BF7-412C-8B01-1C8926CB6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327A104-C602-455A-BB4E-66A5EE535989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -934,9 +934,9 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1293,9 @@
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="64.150000000000006" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="19">
         <v>1001</v>
       </c>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327A104-C602-455A-BB4E-66A5EE535989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC4C1F6-2B27-445C-9F69-D7701B801C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,18 +446,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>射击子弹为圆形
-射击时子弹数量 +3
-子弹寿命 -50%
-子弹在撞击时形成锥形爆炸，对其他目标造成爆炸伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发射一枚爆炸性集束手榴弹
 在撞击或延迟后爆炸
 初始爆炸后，集束炸药遍布该区域
 集束覆盖范围随爆炸半径增加
 射击速度修正：4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击子弹为圆形
+射击时子弹数量 +3
+子弹寿命 -50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -934,9 +933,9 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1141,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="64.150000000000006" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="62.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="19">
         <v>1001</v>
@@ -1151,7 +1150,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>46</v>
@@ -1225,7 +1224,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>75</v>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC4C1F6-2B27-445C-9F69-D7701B801C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629BB394-5302-4D0C-A358-C1274A48E0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -142,14 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+3 子弹数量
-+10% 武器射速
--60% 武器扩散
-你的武器从两门舷侧加农炮发射，你的射弹将在它们之间分开
--10% 武器伤害、爆炸半径和射弹尺寸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认武器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -394,23 +386,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>受到伤害时额外发射一枚子弹
-+5 %伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,0.05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Breaker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击时，8% 的几率强化子弹
-武器射速、武器扩散和射弹速度提高 15%
-- 60% 射击减速度
-- 10% 最大护盾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -457,6 +437,29 @@
     <t>射击子弹为圆形
 射击时子弹数量 +3
 子弹寿命 -50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时，8% 的几率强化子弹
+武器射速、武器扩散和射弹速度提高 15%
+- 60% 射击减速度
+- 10% 最大护盾
+适中的速度与略低的血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3 子弹数量
++10% 武器射速
+-60% 武器扩散
+你的武器从两门舷侧加农炮发射，你的射弹将在它们之间分开
+-10% 武器伤害、爆炸半径和射弹尺寸
+较高的速度与较低的血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害时额外发射一枚子弹
++5 %伤害
+适中的速度与适中的血量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -932,10 +935,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -977,10 +980,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -1082,10 +1085,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1110,13 +1113,13 @@
         <v>1000</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="21">
         <v>0</v>
@@ -1147,13 +1150,13 @@
         <v>1001</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="21">
         <v>0</v>
@@ -1184,13 +1187,13 @@
         <v>1002</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="F7" s="21">
         <v>0</v>
@@ -1221,13 +1224,13 @@
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1260,13 +1263,13 @@
         <v>1001</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F9" s="21">
         <v>0</v>
@@ -1302,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>14</v>
@@ -3516,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3556,16 +3559,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>21</v>
@@ -3603,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>23</v>
@@ -3679,16 +3682,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>19</v>
@@ -3718,20 +3721,20 @@
         <v>1000</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20">
         <v>100</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="21">
         <v>1000</v>
@@ -3755,7 +3758,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="91.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="19">
         <v>1001</v>
@@ -3764,13 +3767,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="20">
         <v>90</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="20">
-        <v>100</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>25</v>
@@ -3800,7 +3803,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="95.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="111.35" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="19">
         <v>1002</v>
@@ -3809,13 +3812,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="20">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>24</v>
@@ -3827,7 +3830,7 @@
         <v>1400</v>
       </c>
       <c r="J7" s="21">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3853,22 +3856,22 @@
         <v>1234</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="21">
         <v>1400</v>
@@ -3892,34 +3895,34 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="36.299999999999997" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" s="21">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="21">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -6458,13 +6461,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>12</v>
@@ -6519,7 +6522,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>23</v>
@@ -6628,10 +6631,10 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -6678,22 +6681,22 @@
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -6737,22 +6740,22 @@
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -6796,22 +6799,22 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6855,22 +6858,22 @@
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="F8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6914,13 +6917,13 @@
         <v>1004</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="F9" s="20">
         <v>100</v>
@@ -6929,7 +6932,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -6975,13 +6978,13 @@
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629BB394-5302-4D0C-A358-C1274A48E0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F874ED-9761-4C4D-9185-960E22D408CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3519,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3740,7 +3740,7 @@
         <v>1000</v>
       </c>
       <c r="J5" s="21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3785,7 +3785,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3830,7 +3830,7 @@
         <v>1400</v>
       </c>
       <c r="J7" s="21">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3877,7 +3877,7 @@
         <v>1400</v>
       </c>
       <c r="J8" s="21">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3922,7 +3922,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F874ED-9761-4C4D-9185-960E22D408CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A599DD7C-D9E2-4DFC-A8B0-9C59363EEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -426,14 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发射一枚爆炸性集束手榴弹
-在撞击或延迟后爆炸
-初始爆炸后，集束炸药遍布该区域
-集束覆盖范围随爆炸半径增加
-射击速度修正：4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>射击子弹为圆形
 射击时子弹数量 +3
 子弹寿命 -50%</t>
@@ -460,6 +452,14 @@
     <t>受到伤害时额外发射一枚子弹
 +5 %伤害
 适中的速度与适中的血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射一枚爆炸性集束手榴弹
+在撞击或延迟后爆炸
+初始爆炸后，集束炸药遍布该区域
+集束覆盖范围随爆炸半径增加
+射击速度修正：5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -935,10 +935,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1153,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>45</v>
@@ -1227,7 +1227,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>74</v>
@@ -3519,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3767,7 +3767,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>88</v>
@@ -3812,7 +3812,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>42</v>
@@ -3904,7 +3904,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>86</v>

--- a/Tools/Luban/Datas/Gears.xlsx
+++ b/Tools/Luban/Datas/Gears.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A599DD7C-D9E2-4DFC-A8B0-9C59363EEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97610E4-AA3A-439B-97D4-FDE73CBD58BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
@@ -3519,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67386E97-BB97-4EB7-8CDE-19B42E092934}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +3740,7 @@
         <v>1000</v>
       </c>
       <c r="J5" s="21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3785,7 +3785,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3830,7 +3830,7 @@
         <v>1400</v>
       </c>
       <c r="J7" s="21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3877,7 +3877,7 @@
         <v>1400</v>
       </c>
       <c r="J8" s="21">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3922,7 +3922,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
